--- a/out/dimension_1/deba2/stat.xlsx
+++ b/out/dimension_1/deba2/stat.xlsx
@@ -1047,328 +1047,328 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1600</v>
+        <v>37500</v>
       </c>
       <c r="C3">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.25</v>
+      </c>
+      <c r="J3">
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <v>50300</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>0.25</v>
+      </c>
+      <c r="S3">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="T3">
+        <v>44400</v>
+      </c>
+      <c r="U3">
+        <v>8</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>0.25</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>0.25</v>
+      </c>
+      <c r="AB3">
+        <v>0.75</v>
+      </c>
+      <c r="AC3">
+        <v>46800</v>
+      </c>
+      <c r="AD3">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>0.08771929824561403</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0.9122807017543859</v>
-      </c>
-      <c r="K3">
-        <v>1800</v>
-      </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>4</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>3</v>
-      </c>
-      <c r="P3">
-        <v>0.2</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-      <c r="R3">
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0.4</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
+      </c>
+      <c r="AJ3">
+        <v>0.25</v>
+      </c>
+      <c r="AK3">
+        <v>0.6</v>
+      </c>
+      <c r="AL3">
+        <v>64800</v>
+      </c>
+      <c r="AM3">
+        <v>6</v>
+      </c>
+      <c r="AN3">
+        <v>2</v>
+      </c>
+      <c r="AO3">
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="AR3">
+        <v>1</v>
+      </c>
+      <c r="AS3">
+        <v>0.25</v>
+      </c>
+      <c r="AT3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="AU3">
+        <v>48200</v>
+      </c>
+      <c r="AV3">
+        <v>6</v>
+      </c>
+      <c r="AW3">
+        <v>2</v>
+      </c>
+      <c r="AX3">
+        <v>1</v>
+      </c>
+      <c r="AY3">
+        <v>1</v>
+      </c>
+      <c r="AZ3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="BA3">
+        <v>1</v>
+      </c>
+      <c r="BB3">
+        <v>0.25</v>
+      </c>
+      <c r="BC3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="BD3">
+        <v>53100</v>
+      </c>
+      <c r="BE3">
+        <v>5</v>
+      </c>
+      <c r="BF3">
+        <v>2</v>
+      </c>
+      <c r="BG3">
+        <v>1</v>
+      </c>
+      <c r="BH3">
+        <v>1</v>
+      </c>
+      <c r="BI3">
+        <v>0.4</v>
+      </c>
+      <c r="BJ3">
+        <v>1</v>
+      </c>
+      <c r="BK3">
+        <v>0.25</v>
+      </c>
+      <c r="BL3">
+        <v>0.6</v>
+      </c>
+      <c r="BM3">
+        <v>34600</v>
+      </c>
+      <c r="BN3">
+        <v>9</v>
+      </c>
+      <c r="BO3">
+        <v>2</v>
+      </c>
+      <c r="BP3">
+        <v>1</v>
+      </c>
+      <c r="BQ3">
+        <v>1</v>
+      </c>
+      <c r="BR3">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="BS3">
+        <v>1</v>
+      </c>
+      <c r="BT3">
+        <v>0.25</v>
+      </c>
+      <c r="BU3">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="BV3">
+        <v>51000</v>
+      </c>
+      <c r="BW3">
+        <v>6</v>
+      </c>
+      <c r="BX3">
+        <v>2</v>
+      </c>
+      <c r="BY3">
+        <v>1</v>
+      </c>
+      <c r="BZ3">
+        <v>1</v>
+      </c>
+      <c r="CA3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="CB3">
+        <v>1</v>
+      </c>
+      <c r="CC3">
+        <v>0.25</v>
+      </c>
+      <c r="CD3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="CE3">
+        <v>44200</v>
+      </c>
+      <c r="CF3">
+        <v>8</v>
+      </c>
+      <c r="CG3">
+        <v>2</v>
+      </c>
+      <c r="CH3">
+        <v>1</v>
+      </c>
+      <c r="CI3">
+        <v>1</v>
+      </c>
+      <c r="CJ3">
+        <v>0.25</v>
+      </c>
+      <c r="CK3">
+        <v>1</v>
+      </c>
+      <c r="CL3">
+        <v>0.25</v>
+      </c>
+      <c r="CM3">
         <v>0.75</v>
       </c>
-      <c r="S3">
-        <v>0.8</v>
-      </c>
-      <c r="T3">
-        <v>1600</v>
-      </c>
-      <c r="U3">
-        <v>61</v>
-      </c>
-      <c r="V3">
-        <v>5</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>4</v>
-      </c>
-      <c r="Y3">
-        <v>0.08196721311475409</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>1</v>
-      </c>
-      <c r="AB3">
-        <v>0.9180327868852459</v>
-      </c>
-      <c r="AC3">
-        <v>1700</v>
-      </c>
-      <c r="AD3">
-        <v>48</v>
-      </c>
-      <c r="AE3">
-        <v>5</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>4</v>
-      </c>
-      <c r="AH3">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="AI3">
-        <v>1</v>
-      </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
-      <c r="AK3">
-        <v>0.8958333333333334</v>
-      </c>
-      <c r="AL3">
-        <v>1700</v>
-      </c>
-      <c r="AM3">
-        <v>48</v>
-      </c>
-      <c r="AN3">
-        <v>5</v>
-      </c>
-      <c r="AO3">
-        <v>1</v>
-      </c>
-      <c r="AP3">
-        <v>4</v>
-      </c>
-      <c r="AQ3">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="AR3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>0.8958333333333334</v>
-      </c>
-      <c r="AU3">
-        <v>2200</v>
-      </c>
-      <c r="AV3">
-        <v>38</v>
-      </c>
-      <c r="AW3">
-        <v>5</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>4</v>
-      </c>
-      <c r="AZ3">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="BA3">
-        <v>1</v>
-      </c>
-      <c r="BB3">
-        <v>1</v>
-      </c>
-      <c r="BC3">
-        <v>0.868421052631579</v>
-      </c>
-      <c r="BD3">
-        <v>1800</v>
-      </c>
-      <c r="BE3">
-        <v>22</v>
-      </c>
-      <c r="BF3">
-        <v>5</v>
-      </c>
-      <c r="BG3">
-        <v>1</v>
-      </c>
-      <c r="BH3">
-        <v>4</v>
-      </c>
-      <c r="BI3">
-        <v>0.22727272727272727</v>
-      </c>
-      <c r="BJ3">
-        <v>1</v>
-      </c>
-      <c r="BK3">
-        <v>1</v>
-      </c>
-      <c r="BL3">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="BM3">
-        <v>1600</v>
-      </c>
-      <c r="BN3">
-        <v>51</v>
-      </c>
-      <c r="BO3">
-        <v>5</v>
-      </c>
-      <c r="BP3">
-        <v>1</v>
-      </c>
-      <c r="BQ3">
-        <v>4</v>
-      </c>
-      <c r="BR3">
-        <v>0.09803921568627451</v>
-      </c>
-      <c r="BS3">
-        <v>1</v>
-      </c>
-      <c r="BT3">
-        <v>1</v>
-      </c>
-      <c r="BU3">
-        <v>0.9019607843137255</v>
-      </c>
-      <c r="BV3">
-        <v>1600</v>
-      </c>
-      <c r="BW3">
-        <v>55</v>
-      </c>
-      <c r="BX3">
-        <v>5</v>
-      </c>
-      <c r="BY3">
-        <v>1</v>
-      </c>
-      <c r="BZ3">
-        <v>4</v>
-      </c>
-      <c r="CA3">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="CB3">
-        <v>1</v>
-      </c>
-      <c r="CC3">
-        <v>1</v>
-      </c>
-      <c r="CD3">
-        <v>0.9090909090909091</v>
-      </c>
-      <c r="CE3">
-        <v>1700</v>
-      </c>
-      <c r="CF3">
-        <v>41</v>
-      </c>
-      <c r="CG3">
-        <v>6</v>
-      </c>
-      <c r="CH3">
-        <v>1</v>
-      </c>
-      <c r="CI3">
-        <v>5</v>
-      </c>
-      <c r="CJ3">
-        <v>0.14634146341463414</v>
-      </c>
-      <c r="CK3">
-        <v>1</v>
-      </c>
-      <c r="CL3">
-        <v>1.25</v>
-      </c>
-      <c r="CM3">
-        <v>0.8536585365853658</v>
-      </c>
       <c r="CN3">
-        <v>1730</v>
+        <v>47490</v>
       </c>
       <c r="CO3">
-        <v>44.1</v>
+        <v>6.8</v>
       </c>
       <c r="CP3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="CQ3">
         <v>1</v>
       </c>
       <c r="CR3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CS3">
-        <v>0.12721612893448492</v>
+        <v>0.30579365079365084</v>
       </c>
       <c r="CT3">
         <v>1</v>
       </c>
       <c r="CU3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="CV3">
-        <v>0.8727838710655151</v>
+        <v>0.6942063492063493</v>
       </c>
       <c r="CW3">
-        <v>1600</v>
+        <v>34600</v>
       </c>
       <c r="CX3">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="CY3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CZ3">
         <v>1</v>
       </c>
       <c r="DA3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="DB3">
-        <v>0.22727272727272727</v>
+        <v>0.4</v>
       </c>
       <c r="DC3">
         <v>1</v>
       </c>
       <c r="DD3">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="DE3">
-        <v>0.7727272727272727</v>
+        <v>0.6</v>
       </c>
       <c r="DF3">
         <v>100</v>
@@ -1379,64 +1379,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1500</v>
+        <v>16700</v>
       </c>
       <c r="C4">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>0.05952380952380952</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.9404761904761905</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="K4">
-        <v>1700</v>
+        <v>25200</v>
       </c>
       <c r="L4">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>0.078125</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="Q4">
         <v>1</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="S4">
-        <v>0.921875</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="T4">
-        <v>1400</v>
+        <v>22500</v>
       </c>
       <c r="U4">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="V4">
         <v>5</v>
@@ -1448,7 +1448,7 @@
         <v>4</v>
       </c>
       <c r="Y4">
-        <v>0.06097560975609756</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -1457,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="AB4">
-        <v>0.9390243902439024</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="AC4">
-        <v>2000</v>
+        <v>9700</v>
       </c>
       <c r="AD4">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="AE4">
         <v>5</v>
@@ -1475,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="AH4">
-        <v>0.0641025641025641</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="AI4">
         <v>1</v>
@@ -1484,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="AK4">
-        <v>0.9358974358974359</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="AL4">
-        <v>1500</v>
+        <v>15400</v>
       </c>
       <c r="AM4">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AN4">
         <v>5</v>
@@ -1502,7 +1502,7 @@
         <v>4</v>
       </c>
       <c r="AQ4">
-        <v>0.06493506493506493</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="AR4">
         <v>1</v>
@@ -1511,196 +1511,196 @@
         <v>1</v>
       </c>
       <c r="AT4">
-        <v>0.935064935064935</v>
+        <v>0.8717948717948718</v>
       </c>
       <c r="AU4">
-        <v>1500</v>
+        <v>19700</v>
       </c>
       <c r="AV4">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="AW4">
+        <v>4</v>
+      </c>
+      <c r="AX4">
+        <v>1</v>
+      </c>
+      <c r="AY4">
+        <v>3</v>
+      </c>
+      <c r="AZ4">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="BA4">
+        <v>1</v>
+      </c>
+      <c r="BB4">
+        <v>0.75</v>
+      </c>
+      <c r="BC4">
+        <v>0.9024390243902439</v>
+      </c>
+      <c r="BD4">
+        <v>31500</v>
+      </c>
+      <c r="BE4">
+        <v>54</v>
+      </c>
+      <c r="BF4">
+        <v>3</v>
+      </c>
+      <c r="BG4">
+        <v>1</v>
+      </c>
+      <c r="BH4">
+        <v>2</v>
+      </c>
+      <c r="BI4">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="BJ4">
+        <v>1</v>
+      </c>
+      <c r="BK4">
+        <v>0.5</v>
+      </c>
+      <c r="BL4">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="BM4">
+        <v>14400</v>
+      </c>
+      <c r="BN4">
+        <v>31</v>
+      </c>
+      <c r="BO4">
+        <v>4</v>
+      </c>
+      <c r="BP4">
+        <v>1</v>
+      </c>
+      <c r="BQ4">
+        <v>3</v>
+      </c>
+      <c r="BR4">
+        <v>0.12903225806451613</v>
+      </c>
+      <c r="BS4">
+        <v>1</v>
+      </c>
+      <c r="BT4">
+        <v>0.75</v>
+      </c>
+      <c r="BU4">
+        <v>0.8709677419354839</v>
+      </c>
+      <c r="BV4">
+        <v>13500</v>
+      </c>
+      <c r="BW4">
+        <v>30</v>
+      </c>
+      <c r="BX4">
+        <v>4</v>
+      </c>
+      <c r="BY4">
+        <v>1</v>
+      </c>
+      <c r="BZ4">
+        <v>3</v>
+      </c>
+      <c r="CA4">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="CB4">
+        <v>1</v>
+      </c>
+      <c r="CC4">
+        <v>0.75</v>
+      </c>
+      <c r="CD4">
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="CE4">
+        <v>48800</v>
+      </c>
+      <c r="CF4">
+        <v>40</v>
+      </c>
+      <c r="CG4">
+        <v>4</v>
+      </c>
+      <c r="CH4">
+        <v>1</v>
+      </c>
+      <c r="CI4">
+        <v>3</v>
+      </c>
+      <c r="CJ4">
+        <v>0.1</v>
+      </c>
+      <c r="CK4">
+        <v>1</v>
+      </c>
+      <c r="CL4">
+        <v>0.75</v>
+      </c>
+      <c r="CM4">
+        <v>0.9</v>
+      </c>
+      <c r="CN4">
+        <v>21740</v>
+      </c>
+      <c r="CO4">
+        <v>40.4</v>
+      </c>
+      <c r="CP4">
+        <v>4</v>
+      </c>
+      <c r="CQ4">
+        <v>1</v>
+      </c>
+      <c r="CR4">
+        <v>3</v>
+      </c>
+      <c r="CS4">
+        <v>0.10251439583119534</v>
+      </c>
+      <c r="CT4">
+        <v>1</v>
+      </c>
+      <c r="CU4">
+        <v>0.75</v>
+      </c>
+      <c r="CV4">
+        <v>0.8974856041688047</v>
+      </c>
+      <c r="CW4">
+        <v>9700</v>
+      </c>
+      <c r="CX4">
+        <v>54</v>
+      </c>
+      <c r="CY4">
         <v>5</v>
       </c>
-      <c r="AX4">
-        <v>1</v>
-      </c>
-      <c r="AY4">
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
         <v>4</v>
       </c>
-      <c r="AZ4">
-        <v>0.06578947368421052</v>
-      </c>
-      <c r="BA4">
-        <v>1</v>
-      </c>
-      <c r="BB4">
-        <v>1</v>
-      </c>
-      <c r="BC4">
-        <v>0.9342105263157895</v>
-      </c>
-      <c r="BD4">
-        <v>2300</v>
-      </c>
-      <c r="BE4">
-        <v>64</v>
-      </c>
-      <c r="BF4">
-        <v>5</v>
-      </c>
-      <c r="BG4">
-        <v>1</v>
-      </c>
-      <c r="BH4">
-        <v>4</v>
-      </c>
-      <c r="BI4">
-        <v>0.078125</v>
-      </c>
-      <c r="BJ4">
-        <v>1</v>
-      </c>
-      <c r="BK4">
-        <v>1</v>
-      </c>
-      <c r="BL4">
-        <v>0.921875</v>
-      </c>
-      <c r="BM4">
-        <v>1500</v>
-      </c>
-      <c r="BN4">
-        <v>80</v>
-      </c>
-      <c r="BO4">
-        <v>5</v>
-      </c>
-      <c r="BP4">
-        <v>1</v>
-      </c>
-      <c r="BQ4">
-        <v>4</v>
-      </c>
-      <c r="BR4">
-        <v>0.0625</v>
-      </c>
-      <c r="BS4">
-        <v>1</v>
-      </c>
-      <c r="BT4">
-        <v>1</v>
-      </c>
-      <c r="BU4">
-        <v>0.9375</v>
-      </c>
-      <c r="BV4">
-        <v>1500</v>
-      </c>
-      <c r="BW4">
-        <v>83</v>
-      </c>
-      <c r="BX4">
-        <v>5</v>
-      </c>
-      <c r="BY4">
-        <v>1</v>
-      </c>
-      <c r="BZ4">
-        <v>4</v>
-      </c>
-      <c r="CA4">
-        <v>0.060240963855421686</v>
-      </c>
-      <c r="CB4">
-        <v>1</v>
-      </c>
-      <c r="CC4">
-        <v>1</v>
-      </c>
-      <c r="CD4">
-        <v>0.9397590361445783</v>
-      </c>
-      <c r="CE4">
-        <v>1800</v>
-      </c>
-      <c r="CF4">
-        <v>76</v>
-      </c>
-      <c r="CG4">
-        <v>6</v>
-      </c>
-      <c r="CH4">
-        <v>1</v>
-      </c>
-      <c r="CI4">
-        <v>5</v>
-      </c>
-      <c r="CJ4">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="CK4">
-        <v>1</v>
-      </c>
-      <c r="CL4">
-        <v>1.25</v>
-      </c>
-      <c r="CM4">
-        <v>0.9210526315789473</v>
-      </c>
-      <c r="CN4">
-        <v>1670</v>
-      </c>
-      <c r="CO4">
-        <v>76.4</v>
-      </c>
-      <c r="CP4">
-        <v>5.1</v>
-      </c>
-      <c r="CQ4">
-        <v>1</v>
-      </c>
-      <c r="CR4">
-        <v>4.1</v>
-      </c>
-      <c r="CS4">
-        <v>0.06732648542782209</v>
-      </c>
-      <c r="CT4">
-        <v>1</v>
-      </c>
-      <c r="CU4">
-        <v>1.025</v>
-      </c>
-      <c r="CV4">
-        <v>0.9326735145721778</v>
-      </c>
-      <c r="CW4">
-        <v>1400</v>
-      </c>
-      <c r="CX4">
-        <v>84</v>
-      </c>
-      <c r="CY4">
-        <v>6</v>
-      </c>
-      <c r="CZ4">
-        <v>1</v>
-      </c>
-      <c r="DA4">
-        <v>5</v>
-      </c>
       <c r="DB4">
-        <v>0.07894736842105263</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="DC4">
         <v>1</v>
       </c>
       <c r="DD4">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="DE4">
-        <v>0.9210526315789473</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="DF4">
         <v>100</v>
@@ -1711,199 +1711,199 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18700</v>
+        <v>16700</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
-        <v>10100</v>
+        <v>17600</v>
       </c>
       <c r="L5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>0.02702702702702703</v>
+        <v>0.3</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <v>0.7</v>
+      </c>
+      <c r="T5">
+        <v>23300</v>
+      </c>
+      <c r="U5">
+        <v>8</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
         <v>0.25</v>
       </c>
-      <c r="S5">
-        <v>0.972972972972973</v>
-      </c>
-      <c r="T5">
-        <v>13100</v>
-      </c>
-      <c r="U5">
-        <v>33</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0.030303030303030304</v>
-      </c>
       <c r="Z5">
         <v>1</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AB5">
-        <v>0.9696969696969697</v>
+        <v>0.75</v>
       </c>
       <c r="AC5">
-        <v>28300</v>
+        <v>23300</v>
       </c>
       <c r="AD5">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AK5">
-        <v>1</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="AL5">
-        <v>15500</v>
+        <v>19800</v>
       </c>
       <c r="AM5">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AN5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.041666666666666664</v>
+        <v>0.4</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
         <v>0.25</v>
       </c>
       <c r="AT5">
-        <v>0.9583333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="AU5">
-        <v>19800</v>
+        <v>30000</v>
       </c>
       <c r="AV5">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AW5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AZ5">
-        <v>0.041666666666666664</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="BA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB5">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="BC5">
-        <v>0.9583333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="BD5">
-        <v>18900</v>
+        <v>18100</v>
       </c>
       <c r="BE5">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="BF5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI5">
-        <v>0.03225806451612903</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="BJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="BL5">
-        <v>0.967741935483871</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="BM5">
-        <v>53400</v>
+        <v>15900</v>
       </c>
       <c r="BN5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BO5">
         <v>2</v>
@@ -1915,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="BR5">
-        <v>0.15384615384615385</v>
+        <v>0.25</v>
       </c>
       <c r="BS5">
         <v>1</v>
@@ -1924,115 +1924,115 @@
         <v>0.25</v>
       </c>
       <c r="BU5">
-        <v>0.8461538461538461</v>
+        <v>0.75</v>
       </c>
       <c r="BV5">
-        <v>33600</v>
+        <v>13800</v>
       </c>
       <c r="BW5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BX5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CA5">
-        <v>0</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="CB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC5">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="CD5">
-        <v>1</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="CE5">
-        <v>34000</v>
+        <v>16100</v>
       </c>
       <c r="CF5">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="CG5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CH5">
         <v>1</v>
       </c>
       <c r="CI5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ5">
-        <v>0.04</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="CK5">
         <v>1</v>
       </c>
       <c r="CL5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="CM5">
-        <v>0.96</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="CN5">
-        <v>24540</v>
+        <v>19460</v>
       </c>
       <c r="CO5">
-        <v>22.9</v>
+        <v>10.7</v>
       </c>
       <c r="CP5">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="CQ5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="CR5">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="CS5">
-        <v>0.03667676090256735</v>
+        <v>0.2791859774212716</v>
       </c>
       <c r="CT5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="CU5">
-        <v>0.125</v>
+        <v>0.45</v>
       </c>
       <c r="CV5">
-        <v>0.9633232390974324</v>
+        <v>0.7208140225787285</v>
       </c>
       <c r="CW5">
-        <v>10100</v>
+        <v>13800</v>
       </c>
       <c r="CX5">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="CY5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="CZ5">
         <v>1</v>
       </c>
       <c r="DA5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="DB5">
-        <v>0.15384615384615385</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="DC5">
         <v>1</v>
       </c>
       <c r="DD5">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="DE5">
-        <v>0.8461538461538461</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="DF5">
         <v>100</v>
@@ -2043,64 +2043,64 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1400</v>
+        <v>5500</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>5</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>0.08571428571428572</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.25</v>
+      </c>
+      <c r="J6">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="K6">
+        <v>7300</v>
+      </c>
+      <c r="L6">
+        <v>67</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>4</v>
       </c>
-      <c r="G6">
-        <v>0.058823529411764705</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>0.9411764705882353</v>
-      </c>
-      <c r="K6">
-        <v>1500</v>
-      </c>
-      <c r="L6">
-        <v>83</v>
-      </c>
-      <c r="M6">
-        <v>6</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
       <c r="P6">
-        <v>0.07228915662650602</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="Q6">
         <v>1</v>
       </c>
       <c r="R6">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0.927710843373494</v>
+        <v>0.9253731343283582</v>
       </c>
       <c r="T6">
-        <v>1400</v>
+        <v>14000</v>
       </c>
       <c r="U6">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="V6">
         <v>5</v>
@@ -2112,7 +2112,7 @@
         <v>4</v>
       </c>
       <c r="Y6">
-        <v>0.06097560975609756</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -2121,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="AB6">
-        <v>0.9390243902439024</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="AC6">
-        <v>2900</v>
+        <v>12200</v>
       </c>
       <c r="AD6">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="AE6">
         <v>5</v>
@@ -2139,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="AH6">
-        <v>0.05952380952380952</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="AI6">
         <v>1</v>
@@ -2148,13 +2148,13 @@
         <v>1</v>
       </c>
       <c r="AK6">
-        <v>0.9404761904761905</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="AL6">
-        <v>1500</v>
+        <v>14500</v>
       </c>
       <c r="AM6">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="AN6">
         <v>5</v>
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="AQ6">
-        <v>0.060240963855421686</v>
+        <v>0.08771929824561403</v>
       </c>
       <c r="AR6">
         <v>1</v>
@@ -2175,40 +2175,40 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.9397590361445783</v>
+        <v>0.9122807017543859</v>
       </c>
       <c r="AU6">
-        <v>1500</v>
+        <v>16800</v>
       </c>
       <c r="AV6">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="AW6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX6">
         <v>1</v>
       </c>
       <c r="AY6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ6">
-        <v>0.06097560975609756</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="BA6">
         <v>1</v>
       </c>
       <c r="BB6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="BC6">
-        <v>0.9390243902439024</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="BD6">
-        <v>2000</v>
+        <v>40700</v>
       </c>
       <c r="BE6">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="BF6">
         <v>5</v>
@@ -2220,7 +2220,7 @@
         <v>4</v>
       </c>
       <c r="BI6">
-        <v>0.05952380952380952</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="BJ6">
         <v>1</v>
@@ -2229,13 +2229,13 @@
         <v>1</v>
       </c>
       <c r="BL6">
-        <v>0.9404761904761905</v>
+        <v>0.9074074074074074</v>
       </c>
       <c r="BM6">
-        <v>1400</v>
+        <v>11800</v>
       </c>
       <c r="BN6">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="BO6">
         <v>5</v>
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="BR6">
-        <v>0.06172839506172839</v>
+        <v>0.078125</v>
       </c>
       <c r="BS6">
         <v>1</v>
@@ -2256,13 +2256,13 @@
         <v>1</v>
       </c>
       <c r="BU6">
-        <v>0.9382716049382716</v>
+        <v>0.921875</v>
       </c>
       <c r="BV6">
-        <v>1900</v>
+        <v>10400</v>
       </c>
       <c r="BW6">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="BX6">
         <v>5</v>
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="CA6">
-        <v>0.05952380952380952</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="CB6">
         <v>1</v>
@@ -2283,13 +2283,13 @@
         <v>1</v>
       </c>
       <c r="CD6">
-        <v>0.9404761904761905</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="CE6">
-        <v>1400</v>
+        <v>11600</v>
       </c>
       <c r="CF6">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="CG6">
         <v>6</v>
@@ -2301,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="CJ6">
-        <v>0.07317073170731707</v>
+        <v>0.1</v>
       </c>
       <c r="CK6">
         <v>1</v>
@@ -2310,40 +2310,40 @@
         <v>1.25</v>
       </c>
       <c r="CM6">
-        <v>0.926829268292683</v>
+        <v>0.9</v>
       </c>
       <c r="CN6">
-        <v>1690</v>
+        <v>14480</v>
       </c>
       <c r="CO6">
-        <v>83</v>
+        <v>60.8</v>
       </c>
       <c r="CP6">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="CQ6">
         <v>1</v>
       </c>
       <c r="CR6">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="CS6">
-        <v>0.06267754247463615</v>
+        <v>0.08420714109658353</v>
       </c>
       <c r="CT6">
         <v>1</v>
       </c>
       <c r="CU6">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
       <c r="CV6">
-        <v>0.9373224575253639</v>
+        <v>0.9157928589034166</v>
       </c>
       <c r="CW6">
-        <v>1400</v>
+        <v>5500</v>
       </c>
       <c r="CX6">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="CY6">
         <v>6</v>
@@ -2355,7 +2355,7 @@
         <v>5</v>
       </c>
       <c r="DB6">
-        <v>0.07317073170731707</v>
+        <v>0.1</v>
       </c>
       <c r="DC6">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>1.25</v>
       </c>
       <c r="DE6">
-        <v>0.926829268292683</v>
+        <v>0.9</v>
       </c>
       <c r="DF6">
         <v>100</v>
